--- a/do - BACKUP.xlsx
+++ b/do - BACKUP.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grace\Desktop\Manual\SP\Team-Collaboration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob08\Desktop\Team-Collaboration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9620E25C-5FF3-421D-BA5A-FAEC4466B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="SMART" sheetId="1" r:id="rId1"/>
-    <sheet name="EZ" sheetId="2" r:id="rId2"/>
-    <sheet name="PCL" sheetId="3" r:id="rId3"/>
-    <sheet name="PG" sheetId="4" r:id="rId4"/>
-    <sheet name="QZ" sheetId="5" r:id="rId5"/>
+    <sheet name="QZ" sheetId="5" r:id="rId2"/>
+    <sheet name="EZ" sheetId="2" r:id="rId3"/>
+    <sheet name="PCL" sheetId="3" r:id="rId4"/>
+    <sheet name="PG" sheetId="4" r:id="rId5"/>
     <sheet name="UWE" sheetId="6" r:id="rId6"/>
     <sheet name="RECORD_DO" sheetId="7" r:id="rId7"/>
     <sheet name="ATL-SAV" sheetId="8" r:id="rId8"/>
@@ -808,7 +807,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -1386,13 +1385,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1710,13 +1711,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
@@ -2183,13 +2184,13 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2198,7 +2199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -32706,13 +32707,509 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A2:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="35">
+        <v>10081.739</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="35">
+        <v>10081.739</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="35">
+        <v>10582.189</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="35">
+        <v>16230.432000000001</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="35">
+        <v>41623.275000000001</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="35">
+        <v>41623.275000000001</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="35">
+        <v>41623.275000000001</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>45090</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="43">
+        <v>19432.866999999998</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>45090</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="43">
+        <v>19198.736000000001</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>45090</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42699,8 +43196,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -52740,8 +53237,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -53000,504 +53497,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="33" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="35">
-        <v>10081.739</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="35">
-        <v>10081.739</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="35">
-        <v>10582.189</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="35">
-        <v>16230.432000000001</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="35">
-        <v>41623.275000000001</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="35">
-        <v>41623.275000000001</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="35">
-        <v>41623.275000000001</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
-        <v>45090</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="43">
-        <v>19432.866999999998</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>45090</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="43">
-        <v>19198.736000000001</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>45090</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -53601,7 +53602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -53656,13 +53657,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -53721,13 +53724,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
